--- a/data/evaluated_treatment.xlsx
+++ b/data/evaluated_treatment.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Coding\GitHub\broken-morals\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C5080CB-AA7F-401A-B90F-BD3536E27D52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E77898F-0107-41EE-9947-1AFECC627B19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-75" yWindow="4335" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Aggregate" sheetId="1" r:id="rId1"/>
@@ -736,7 +736,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
@@ -1526,7 +1526,7 @@
   <dimension ref="A1:N7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N6" sqref="D2:N6"/>
+      <selection activeCell="H34" sqref="H34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2199,8 +2199,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:N7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:N1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M18" sqref="M18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
